--- a/src/main/resources/templates/liss_vi.xlsx
+++ b/src/main/resources/templates/liss_vi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\neo\nbd-api\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0CE408-447E-4BDA-8D4E-A63D110CAB9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F3122D-7B52-461B-829E-76F18840229F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{79984187-C45F-4096-B0E6-46317A7DC8DE}"/>
   </bookViews>
@@ -206,9 +206,6 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -234,6 +231,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -558,34 +558,34 @@
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="40.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="29.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23" style="18" customWidth="1"/>
-    <col min="7" max="7" width="24.85546875" style="18" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" style="18" customWidth="1"/>
-    <col min="9" max="9" width="13" style="18" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="12" customWidth="1"/>
-    <col min="11" max="11" width="16.5703125" style="12" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="23" style="17" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" style="17" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" style="17" customWidth="1"/>
+    <col min="9" max="9" width="13" style="17" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="11" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" style="11" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" style="11" customWidth="1"/>
     <col min="13" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
     </row>
     <row r="3" spans="1:12" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -603,25 +603,25 @@
       <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="L3" s="14" t="s">
         <v>19</v>
       </c>
     </row>
@@ -641,16 +641,16 @@
       <c r="E4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="15" t="s">
         <v>20</v>
       </c>
       <c r="J4" s="6" t="s">
@@ -669,7 +669,7 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="8"/>
-      <c r="F5" s="17"/>
+      <c r="F5" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
